--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\courses\C++\data sturcture with cpp\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDB286F-DA08-476B-BD79-FC88058D8E9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332A766A-B30B-4848-A427-768D35E0651C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2509,7 +2509,7 @@
         <v>61</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="21">
@@ -2520,7 +2520,7 @@
         <v>62</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="21">
@@ -2531,7 +2531,7 @@
         <v>63</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="21">
@@ -2542,7 +2542,7 @@
         <v>64</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\courses\C++\data sturcture with cpp\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332A766A-B30B-4848-A427-768D35E0651C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD85821-55A0-42E6-9FDA-58D2D2EF094F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2553,7 +2553,7 @@
         <v>65</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\courses\C++\data sturcture with cpp\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD85821-55A0-42E6-9FDA-58D2D2EF094F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A97541-1F0E-4720-9E22-FE61C4D31CD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="470">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1432,6 +1432,9 @@
   </si>
   <si>
     <t>….........................................</t>
+  </si>
+  <si>
+    <t>Done dp</t>
   </si>
 </sst>
 </file>
@@ -1864,7 +1867,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2564,7 +2567,7 @@
         <v>66</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>4</v>
+        <v>469</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\courses\C++\data sturcture with cpp\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A97541-1F0E-4720-9E22-FE61C4D31CD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7F46FD-3423-4B95-ADC9-42AC5C982710}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2578,7 +2578,7 @@
         <v>67</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\courses\C++\data sturcture with cpp\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7F46FD-3423-4B95-ADC9-42AC5C982710}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4341128-D52E-472F-8B5D-F2BB239700DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2589,7 +2589,7 @@
         <v>68</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="21">
@@ -2600,7 +2600,7 @@
         <v>69</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="21">
@@ -2611,7 +2611,7 @@
         <v>70</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\courses\C++\data sturcture with cpp\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4341128-D52E-472F-8B5D-F2BB239700DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D726BDB-2AF8-464B-B9FA-2BF05A9ADF7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1867,7 +1867,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2622,7 +2622,7 @@
         <v>71</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="21">
@@ -2633,7 +2633,7 @@
         <v>72</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\courses\C++\data sturcture with cpp\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D726BDB-2AF8-464B-B9FA-2BF05A9ADF7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1799ED4B-8EAA-4FE7-9589-137A922843BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="471">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1435,6 +1435,9 @@
   </si>
   <si>
     <t>Done dp</t>
+  </si>
+  <si>
+    <t>Done…..........</t>
   </si>
 </sst>
 </file>
@@ -1866,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2644,7 +2647,7 @@
         <v>73</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="21">
@@ -2655,7 +2658,7 @@
         <v>74</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="21">
@@ -2666,7 +2669,7 @@
         <v>75</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>4</v>
+        <v>470</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\courses\C++\data sturcture with cpp\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1799ED4B-8EAA-4FE7-9589-137A922843BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D315B87-C49A-43EA-8DCC-C4EF8FF1AA39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="660" yWindow="276" windowWidth="21600" windowHeight="11388" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="472">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1438,6 +1438,9 @@
   </si>
   <si>
     <t>Done…..........</t>
+  </si>
+  <si>
+    <t>…....</t>
   </si>
 </sst>
 </file>
@@ -1869,18 +1872,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="76" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25">
+    <row r="1" spans="1:3" ht="24.6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2680,7 +2683,7 @@
         <v>76</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>4</v>
+        <v>471</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="21">
@@ -2916,7 +2919,7 @@
         <v>98</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="21">
@@ -2927,7 +2930,7 @@
         <v>99</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="21">
@@ -2938,7 +2941,7 @@
         <v>100</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="21">
@@ -2949,7 +2952,7 @@
         <v>101</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="21">
@@ -2960,7 +2963,7 @@
         <v>102</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\courses\C++\data sturcture with cpp\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D315B87-C49A-43EA-8DCC-C4EF8FF1AA39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EDE383-B74E-450C-8401-7A8477FABDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="276" windowWidth="21600" windowHeight="11388" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="76" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A406" zoomScale="76" workbookViewId="0">
+      <selection activeCell="C415" sqref="C415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -3319,7 +3319,7 @@
         <v>135</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="21">
@@ -3330,7 +3330,7 @@
         <v>136</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="21">
@@ -3341,7 +3341,7 @@
         <v>137</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="21">
@@ -3352,7 +3352,7 @@
         <v>138</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="21">
@@ -3363,7 +3363,7 @@
         <v>139</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="21">
@@ -6172,7 +6172,7 @@
         <v>394</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="21">
@@ -6183,7 +6183,7 @@
         <v>395</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="21">
@@ -6194,7 +6194,7 @@
         <v>396</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="21">
@@ -6205,7 +6205,7 @@
         <v>397</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="21">
@@ -6216,7 +6216,7 @@
         <v>398</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\courses\C++\data sturcture with cpp\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EDE383-B74E-450C-8401-7A8477FABDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096099AA-0A78-4CEB-95E7-765783A1D1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="660" yWindow="276" windowWidth="21600" windowHeight="11388" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" zoomScale="76" workbookViewId="0">
-      <selection activeCell="C415" sqref="C415"/>
+    <sheetView tabSelected="1" topLeftCell="A351" zoomScale="76" workbookViewId="0">
+      <selection activeCell="C362" sqref="C362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -5606,7 +5606,7 @@
         <v>344</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="21">
@@ -5617,7 +5617,7 @@
         <v>345</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="21">
@@ -5628,7 +5628,7 @@
         <v>346</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="21">
@@ -5639,7 +5639,7 @@
         <v>347</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="21">
@@ -5650,7 +5650,7 @@
         <v>348</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="21">
@@ -5661,7 +5661,7 @@
         <v>349</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="21">
@@ -6227,7 +6227,7 @@
         <v>399</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="21">
@@ -6238,7 +6238,7 @@
         <v>400</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="21">
@@ -6249,7 +6249,7 @@
         <v>273</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="21">
@@ -6260,7 +6260,7 @@
         <v>401</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="21">
@@ -6271,7 +6271,7 @@
         <v>402</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\courses\C++\data sturcture with cpp\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096099AA-0A78-4CEB-95E7-765783A1D1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2C184B-FA8D-43D8-A477-EBA97B9F9F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="276" windowWidth="21600" windowHeight="11388" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A351" zoomScale="76" workbookViewId="0">
-      <selection activeCell="C362" sqref="C362"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="76" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -5672,7 +5672,7 @@
         <v>350</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="21">
@@ -5683,7 +5683,7 @@
         <v>351</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="21">
@@ -5694,7 +5694,7 @@
         <v>352</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="21">
@@ -5705,7 +5705,7 @@
         <v>353</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="21">
@@ -5716,7 +5716,7 @@
         <v>354</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="21">
@@ -5727,7 +5727,7 @@
         <v>355</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="21">
@@ -5738,7 +5738,7 @@
         <v>356</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="21">
@@ -5749,7 +5749,7 @@
         <v>357</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="21">
@@ -5760,7 +5760,7 @@
         <v>358</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="21">
@@ -6841,7 +6841,7 @@
         <v>454</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="21">
@@ -6852,7 +6852,7 @@
         <v>455</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="21">
@@ -6863,7 +6863,7 @@
         <v>456</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="21">
@@ -6874,7 +6874,7 @@
         <v>457</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="21">
@@ -6885,7 +6885,7 @@
         <v>458</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="21">
@@ -6896,7 +6896,7 @@
         <v>459</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="21">
@@ -6907,7 +6907,7 @@
         <v>460</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="21">
@@ -6918,7 +6918,7 @@
         <v>461</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="21">
@@ -6929,7 +6929,7 @@
         <v>462</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="21">
@@ -6940,7 +6940,7 @@
         <v>463</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\courses\C++\data sturcture with cpp\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2C184B-FA8D-43D8-A477-EBA97B9F9F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13590C62-962D-4705-A483-DA5CCB967DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="276" windowWidth="21600" windowHeight="11388" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="76" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="76" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -2974,7 +2974,7 @@
         <v>103</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="21">
@@ -2985,7 +2985,7 @@
         <v>104</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="21">
@@ -2996,7 +2996,7 @@
         <v>105</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="21">
@@ -3007,7 +3007,7 @@
         <v>106</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="21">
@@ -3018,7 +3018,7 @@
         <v>107</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="21">
@@ -3029,7 +3029,7 @@
         <v>108</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\courses\C++\data sturcture with cpp\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13590C62-962D-4705-A483-DA5CCB967DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94B5A05-1803-4A27-AAA0-9F4AAB28D481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="276" windowWidth="21600" windowHeight="11388" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="76" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="76" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -3040,7 +3040,7 @@
         <v>109</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="21">
@@ -3051,7 +3051,7 @@
         <v>110</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="21">
@@ -3062,7 +3062,7 @@
         <v>111</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="21">
@@ -3073,7 +3073,7 @@
         <v>112</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="21">
@@ -3374,7 +3374,7 @@
         <v>140</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="21">
@@ -3385,7 +3385,7 @@
         <v>141</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="21">
@@ -3396,7 +3396,7 @@
         <v>142</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="21">
@@ -3407,7 +3407,7 @@
         <v>143</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="21">
@@ -3418,7 +3418,7 @@
         <v>144</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="21">
@@ -3429,7 +3429,7 @@
         <v>145</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="21">
@@ -3440,7 +3440,7 @@
         <v>146</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="21">
@@ -3451,7 +3451,7 @@
         <v>147</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\courses\C++\data sturcture with cpp\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94B5A05-1803-4A27-AAA0-9F4AAB28D481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B29F72-D950-4CBC-9FF6-ED47F35AACEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="276" windowWidth="21600" windowHeight="11388" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="76" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="76" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -3462,7 +3462,7 @@
         <v>148</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="21">
@@ -3473,7 +3473,7 @@
         <v>149</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\courses\C++\data sturcture with cpp\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B29F72-D950-4CBC-9FF6-ED47F35AACEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9598EF11-134C-42E2-8323-80945A4A29A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="276" windowWidth="21600" windowHeight="11388" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1510,12 +1510,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1531,7 +1537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1555,6 +1561,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1872,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="76" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="76" workbookViewId="0">
+      <selection activeCell="B215" sqref="B215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -3719,7 +3728,7 @@
         <v>172</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="21">
@@ -3730,7 +3739,7 @@
         <v>173</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="21">
@@ -3741,7 +3750,7 @@
         <v>174</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="21">
@@ -3752,7 +3761,7 @@
         <v>175</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="21">
@@ -3763,7 +3772,7 @@
         <v>176</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="21">
@@ -3774,7 +3783,7 @@
         <v>177</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="21">
@@ -3785,7 +3794,7 @@
         <v>178</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="21">
@@ -3796,7 +3805,7 @@
         <v>179</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="21">
@@ -3807,7 +3816,7 @@
         <v>180</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="21">
@@ -3818,7 +3827,7 @@
         <v>181</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="21">
@@ -3829,7 +3838,7 @@
         <v>182</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="21">
@@ -3840,7 +3849,7 @@
         <v>183</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="21">
@@ -3851,7 +3860,7 @@
         <v>184</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="21">
@@ -3862,7 +3871,7 @@
         <v>185</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="21">
@@ -4113,7 +4122,7 @@
       <c r="B214" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C214" s="4" t="s">
+      <c r="C214" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4124,7 +4133,7 @@
       <c r="B215" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C215" s="4" t="s">
+      <c r="C215" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4135,7 +4144,7 @@
       <c r="B216" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C216" s="4" t="s">
+      <c r="C216" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4146,7 +4155,7 @@
       <c r="B217" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C217" s="4" t="s">
+      <c r="C217" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4157,7 +4166,7 @@
       <c r="B218" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C218" s="4" t="s">
+      <c r="C218" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4168,7 +4177,7 @@
       <c r="B219" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C219" s="4" t="s">
+      <c r="C219" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4179,7 +4188,7 @@
       <c r="B220" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C220" s="4" t="s">
+      <c r="C220" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4190,7 +4199,7 @@
       <c r="B221" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C221" s="4" t="s">
+      <c r="C221" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4201,7 +4210,7 @@
       <c r="B222" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C222" s="4" t="s">
+      <c r="C222" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4212,7 +4221,7 @@
       <c r="B223" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C223" s="4" t="s">
+      <c r="C223" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4223,7 +4232,7 @@
       <c r="B224" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C224" s="4" t="s">
+      <c r="C224" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4234,7 +4243,7 @@
       <c r="B225" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C225" s="4" t="s">
+      <c r="C225" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4245,7 +4254,7 @@
       <c r="B226" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C226" s="4" t="s">
+      <c r="C226" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4256,7 +4265,7 @@
       <c r="B227" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C227" s="4" t="s">
+      <c r="C227" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4267,7 +4276,7 @@
       <c r="B228" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C228" s="4" t="s">
+      <c r="C228" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4278,7 +4287,7 @@
       <c r="B229" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C229" s="4" t="s">
+      <c r="C229" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4289,7 +4298,7 @@
       <c r="B230" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C230" s="4" t="s">
+      <c r="C230" s="11" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\courses\C++\data sturcture with cpp\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9598EF11-134C-42E2-8323-80945A4A29A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D03EA1-4868-431A-8D90-66ED3FE48662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="276" windowWidth="21600" windowHeight="11388" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1510,18 +1510,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1537,7 +1531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1561,9 +1555,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1881,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="76" workbookViewId="0">
-      <selection activeCell="B215" sqref="B215"/>
+    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="76" workbookViewId="0">
+      <selection activeCell="B227" sqref="B227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -4122,8 +4113,8 @@
       <c r="B214" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C214" s="11" t="s">
-        <v>4</v>
+      <c r="C214" s="4" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="21">
@@ -4133,8 +4124,8 @@
       <c r="B215" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C215" s="11" t="s">
-        <v>4</v>
+      <c r="C215" s="4" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="21">
@@ -4144,8 +4135,8 @@
       <c r="B216" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C216" s="11" t="s">
-        <v>4</v>
+      <c r="C216" s="4" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="21">
@@ -4155,8 +4146,8 @@
       <c r="B217" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C217" s="11" t="s">
-        <v>4</v>
+      <c r="C217" s="4" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="21">
@@ -4166,8 +4157,8 @@
       <c r="B218" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C218" s="11" t="s">
-        <v>4</v>
+      <c r="C218" s="4" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="21">
@@ -4177,8 +4168,8 @@
       <c r="B219" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C219" s="11" t="s">
-        <v>4</v>
+      <c r="C219" s="4" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="21">
@@ -4188,8 +4179,8 @@
       <c r="B220" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C220" s="11" t="s">
-        <v>4</v>
+      <c r="C220" s="4" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="21">
@@ -4199,8 +4190,8 @@
       <c r="B221" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C221" s="11" t="s">
-        <v>4</v>
+      <c r="C221" s="4" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="21">
@@ -4210,8 +4201,8 @@
       <c r="B222" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C222" s="11" t="s">
-        <v>4</v>
+      <c r="C222" s="4" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="21">
@@ -4221,8 +4212,8 @@
       <c r="B223" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C223" s="11" t="s">
-        <v>4</v>
+      <c r="C223" s="4" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="21">
@@ -4232,8 +4223,8 @@
       <c r="B224" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C224" s="11" t="s">
-        <v>4</v>
+      <c r="C224" s="4" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="21">
@@ -4243,8 +4234,8 @@
       <c r="B225" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C225" s="11" t="s">
-        <v>4</v>
+      <c r="C225" s="4" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="21">
@@ -4254,8 +4245,8 @@
       <c r="B226" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C226" s="11" t="s">
-        <v>4</v>
+      <c r="C226" s="4" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="21">
@@ -4265,8 +4256,8 @@
       <c r="B227" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C227" s="11" t="s">
-        <v>4</v>
+      <c r="C227" s="4" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="21">
@@ -4276,7 +4267,7 @@
       <c r="B228" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C228" s="11" t="s">
+      <c r="C228" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4287,7 +4278,7 @@
       <c r="B229" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C229" s="11" t="s">
+      <c r="C229" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4298,7 +4289,7 @@
       <c r="B230" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C230" s="11" t="s">
+      <c r="C230" s="4" t="s">
         <v>4</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\courses\C++\data sturcture with cpp\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D03EA1-4868-431A-8D90-66ED3FE48662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760E3014-06C2-4638-9688-6B55B4C84223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="276" windowWidth="21600" windowHeight="11388" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="76" workbookViewId="0">
-      <selection activeCell="B227" sqref="B227"/>
+    <sheetView tabSelected="1" topLeftCell="A237" zoomScale="76" workbookViewId="0">
+      <selection activeCell="B243" sqref="B243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -4364,7 +4364,7 @@
         <v>231</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="21">
@@ -4375,7 +4375,7 @@
         <v>232</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="21">
@@ -4386,7 +4386,7 @@
         <v>233</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="21">
@@ -4397,7 +4397,7 @@
         <v>234</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="21">
@@ -4408,7 +4408,7 @@
         <v>235</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\courses\C++\data sturcture with cpp\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760E3014-06C2-4638-9688-6B55B4C84223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C073F6F-3055-4B34-B3A4-A82932AAA2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="276" windowWidth="21600" windowHeight="11388" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" zoomScale="76" workbookViewId="0">
-      <selection activeCell="B243" sqref="B243"/>
+    <sheetView tabSelected="1" topLeftCell="A233" zoomScale="76" workbookViewId="0">
+      <selection activeCell="B251" sqref="B251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -4419,7 +4419,7 @@
         <v>236</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="21">
@@ -4430,7 +4430,7 @@
         <v>237</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="21">
@@ -4441,7 +4441,7 @@
         <v>238</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="21">
@@ -4452,7 +4452,7 @@
         <v>239</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="21">
@@ -4463,7 +4463,7 @@
         <v>240</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="21">
@@ -4474,7 +4474,7 @@
         <v>241</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="21">
@@ -4485,7 +4485,7 @@
         <v>242</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="21">
@@ -4496,7 +4496,7 @@
         <v>243</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="21">
@@ -4507,7 +4507,7 @@
         <v>244</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="21">
@@ -4518,7 +4518,7 @@
         <v>245</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="21">
